--- a/Languages/OSD/OSD Languages.xlsx
+++ b/Languages/OSD/OSD Languages.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronshaw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C46600-F45B-F547-A810-F665BAA1646F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C3ECB6-F1D3-9444-9777-A04DBFB224EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OSD Languages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="406">
   <si>
     <t>English</t>
   </si>
@@ -1190,13 +1200,62 @@
   </si>
   <si>
     <t>اللغة الفيتنامية</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>アラビア語</t>
+  </si>
+  <si>
+    <t>ARABE</t>
+  </si>
+  <si>
+    <t>ARABISCH</t>
+  </si>
+  <si>
+    <t>ÁRABE</t>
+  </si>
+  <si>
+    <t>ARABO</t>
+  </si>
+  <si>
+    <t>العربية</t>
+  </si>
+  <si>
+    <t>ARABIC</t>
+  </si>
+  <si>
+    <t>音源设定</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>音源設定</t>
+  </si>
+  <si>
+    <t>RÉGLAGE DE LA SOURCE AUDIO</t>
+  </si>
+  <si>
+    <t>EINSTELLUNG DER AUDIOQUELLE</t>
+  </si>
+  <si>
+    <t>CONFIGURACIÓN DE FUENTE DE AUDIO</t>
+  </si>
+  <si>
+    <t>IMPOSTAZIONE SORGENTE AUDIO</t>
+  </si>
+  <si>
+    <t>مصدر الصوت الإعدادات</t>
+  </si>
+  <si>
+    <t>AUDIO SOURCE SETTING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1336,8 +1395,41 @@
       <color rgb="FF404040"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +1609,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1678,10 +1776,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2037,15 +2148,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2208,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +2260,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +2286,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="18">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +2312,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2226,8 +2337,16 @@
       <c r="H7" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2252,1174 +2371,1266 @@
       <c r="H8" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="20">
       <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="20">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="18">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="18">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:17" ht="18">
+      <c r="A14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:17" ht="18">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" ht="18">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:8" ht="18">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:8" ht="18">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:8" ht="18">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8" ht="18">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:8" ht="18">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:8" ht="18">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" ht="18">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:8" ht="18">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8" ht="18">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:8" ht="18">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:8" ht="18">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:8" ht="18">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:8" ht="18">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="33" spans="1:8" ht="18">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="34" spans="1:8" ht="18">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:8" ht="18">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:8" ht="18">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:8" ht="18">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:8" ht="18">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:8" ht="18">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:8" ht="18">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="41" spans="1:8" ht="18">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:8" ht="18">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:8" ht="18">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:8" ht="18">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:8" ht="18">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:8" ht="18">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="47" spans="1:8" ht="18">
+      <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:8" ht="18">
+      <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:8" ht="18">
+      <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="50" spans="1:8" ht="18">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="51" spans="1:8" ht="18">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:8" ht="18">
+      <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:8" ht="18">
+      <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>86</v>
       </c>
     </row>
